--- a/프로젝트/엑셀파일.xlsx
+++ b/프로젝트/엑셀파일.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SungWoo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosmo\Desktop\GitHub\new-study-repository\프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E91F1816-5329-4DC8-A483-738138A19043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95375BB4-0C7D-4BF3-A41B-43873706070B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34035" yWindow="1320" windowWidth="20595" windowHeight="14400" xr2:uid="{A5059787-47D1-4741-B77C-B1B16DDC66CF}"/>
+    <workbookView xWindow="510" yWindow="990" windowWidth="20460" windowHeight="15555" xr2:uid="{A5059787-47D1-4741-B77C-B1B16DDC66CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,12 +139,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -161,9 +167,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,15 +491,23 @@
   <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -581,6 +598,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
